--- a/medicine/Mort/Peine_de_mort_en_Louisiane/Peine_de_mort_en_Louisiane.xlsx
+++ b/medicine/Mort/Peine_de_mort_en_Louisiane/Peine_de_mort_en_Louisiane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pendaison fut utilisée comme méthode d'exécution en Louisiane jusqu'en 1941, date à laquelle elle fut remplacée par la chaise électrique[1]. L'injection létale se substitua à cette méthode en 1993. 
-28 personnes ont été exécutées en Louisiane entre 1983 et 2010 dont les 20 premières avant 1992 par électrocution et les 8 suivantes par injection létale. Les exécutions ont lieu au Louisiana State Penitentiary (Paroisse de Feliciana Ouest) entre 18 heures et minuit[2]. Avant l'introduction de la chaise en 1941, les exécutions se faisaient par pendaison.
-Louisiana State Penitentiary est la seule prison habilitée à appliquer la peine de mort en Louisiane, le couloir de la mort pour les hommes et la chambre d'exécution s’y trouvent[3],[4]. Le couloir de la mort pour les femmes est situé dans Louisiana Correctional Institute for Women (LCIW) à Saint-Gabriel[5].
-La Louisiane détient un homme ayant obtenu la nationalité française après sa condamnation à mort, Michael LeGrand, qui a poignardé quarante fois avec divers ustensiles dont un tournevis et un crayon, un de ses amis, Rafael Santos, un immigré cubain, pour lui voler sa collection de CD[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pendaison fut utilisée comme méthode d'exécution en Louisiane jusqu'en 1941, date à laquelle elle fut remplacée par la chaise électrique. L'injection létale se substitua à cette méthode en 1993. 
+28 personnes ont été exécutées en Louisiane entre 1983 et 2010 dont les 20 premières avant 1992 par électrocution et les 8 suivantes par injection létale. Les exécutions ont lieu au Louisiana State Penitentiary (Paroisse de Feliciana Ouest) entre 18 heures et minuit. Avant l'introduction de la chaise en 1941, les exécutions se faisaient par pendaison.
+Louisiana State Penitentiary est la seule prison habilitée à appliquer la peine de mort en Louisiane, le couloir de la mort pour les hommes et la chambre d'exécution s’y trouvent,. Le couloir de la mort pour les femmes est situé dans Louisiana Correctional Institute for Women (LCIW) à Saint-Gabriel.
+La Louisiane détient un homme ayant obtenu la nationalité française après sa condamnation à mort, Michael LeGrand, qui a poignardé quarante fois avec divers ustensiles dont un tournevis et un crayon, un de ses amis, Rafael Santos, un immigré cubain, pour lui voler sa collection de CD.
 En 1984, la Louisiane a exécuté Elmo Patrick Sonnier (en), qui a inspiré le film La Dernière Marche.
 </t>
         </is>
@@ -515,9 +527,11 @@
           <t>L'affaire Kennedy v. Louisiana</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Louisiane est le premier État à avoir établi la peine de mort pour viol d'enfant après 1976 (en 1995) et le seul à avoir prononcé des condamnations en ce sens (2 dont une en 2007, alors que le pays comptait plus de 3000 condamnés). Plusieurs États avaient commencé à promulguer ou à débattre de lois similaires dans le milieu des années 2000. Bien que la Cour suprême des États-Unis a déjà jugé la peine de mort anticonstitutionnelle pour viol en 1977 dans l'affaire Coker v. Georgia, la Cour suprême de Louisiane (en) avait, elle, estimé que cette jurisprudence ne pouvait s'appliquer, l'affaire en question concernant le viol d'une adulte. En 2008, le condamné Patrick Kennedy saisit la Cour suprême et celle-ci statue en sa faveur par cinq voix contre quatre. La Cour jugea par la plume d'Anthony Kennedy qu'au vu du faible état d'application de cette pratique, il y avait « un consensus national sur la question » et qu'« il y a une différence entre le meurtre au premier degré d'une part et les autres crimes contre les personnes d'autre part, même si le viol peut dévaster psychologiquement un enfant et scandaliser le public, il ne peut être comparé au meurtre dans sa sévérité et son caractère irrévocable ». Le jugement cite également le fait que les violeurs pourraient perdre intérêt à laisser leur victime en vie ou encore que les victimes pourraient être dissuadées de dénoncer leurs proches parents en cas de viol. Des arguments qui furent vivement critiqués par les juges conservateurs dans leurs opinions dissidentes pour leur caractère « non-constitutionnel »[7]. Le jugement précise toutefois qu'il n'affecte pas les autres crimes non-homicides comme l'espionnage, la trahison ou encore la direction d'un trafic de stupéfiants, des crimes qui, même s'il n'ont pour l'heure pas entraîné de condamnation à la peine de mort, en sont théoriquement tous passibles devant la justice fédérale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Louisiane est le premier État à avoir établi la peine de mort pour viol d'enfant après 1976 (en 1995) et le seul à avoir prononcé des condamnations en ce sens (2 dont une en 2007, alors que le pays comptait plus de 3000 condamnés). Plusieurs États avaient commencé à promulguer ou à débattre de lois similaires dans le milieu des années 2000. Bien que la Cour suprême des États-Unis a déjà jugé la peine de mort anticonstitutionnelle pour viol en 1977 dans l'affaire Coker v. Georgia, la Cour suprême de Louisiane (en) avait, elle, estimé que cette jurisprudence ne pouvait s'appliquer, l'affaire en question concernant le viol d'une adulte. En 2008, le condamné Patrick Kennedy saisit la Cour suprême et celle-ci statue en sa faveur par cinq voix contre quatre. La Cour jugea par la plume d'Anthony Kennedy qu'au vu du faible état d'application de cette pratique, il y avait « un consensus national sur la question » et qu'« il y a une différence entre le meurtre au premier degré d'une part et les autres crimes contre les personnes d'autre part, même si le viol peut dévaster psychologiquement un enfant et scandaliser le public, il ne peut être comparé au meurtre dans sa sévérité et son caractère irrévocable ». Le jugement cite également le fait que les violeurs pourraient perdre intérêt à laisser leur victime en vie ou encore que les victimes pourraient être dissuadées de dénoncer leurs proches parents en cas de viol. Des arguments qui furent vivement critiqués par les juges conservateurs dans leurs opinions dissidentes pour leur caractère « non-constitutionnel ». Le jugement précise toutefois qu'il n'affecte pas les autres crimes non-homicides comme l'espionnage, la trahison ou encore la direction d'un trafic de stupéfiants, des crimes qui, même s'il n'ont pour l'heure pas entraîné de condamnation à la peine de mort, en sont théoriquement tous passibles devant la justice fédérale.
 Soutenu par le Gouvernement Fédéral, l'État de Louisiane demanda vainement ensuite à la haute juridiction de revoir sa décision en se basant sur le fait que la Cour ignorait que le Congrès avait voté en 2006 une loi rendant le viol passible de mort lorsqu'il est commis par un militaire.
 </t>
         </is>
@@ -547,10 +561,12 @@
           <t>Exécutions depuis 1973</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les exécutions ont lieu à Angola, au Louisiana State Penitentiary.
-En décembre 2018 le couloir de la mort de Louisiane compte 70 condamnés dont une femme[9]. Depuis 1973, 13 condamnés ont été graciés en Louisiane[10],[11].
+En décembre 2018 le couloir de la mort de Louisiane compte 70 condamnés dont une femme. Depuis 1973, 13 condamnés ont été graciés en Louisiane,.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Crimes capitaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>RS 14:113 - Trahison
 RS 14:30 - Meurtre au premier degré
